--- a/HAUC_Test.xlsx
+++ b/HAUC_Test.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
     <sheet name="SystemConfig" sheetId="1" r:id="rId2"/>
     <sheet name="Test Items" sheetId="2" r:id="rId3"/>
-    <sheet name="Old_backup" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Disconnect A</t>
     <phoneticPr fontId="1"/>
@@ -202,117 +201,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>RESULT</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Connection B from module 0 and 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Connection D from module 0 and 1  </t>
-  </si>
-  <si>
-    <t>ESXi B shows Mirroring NIC’s down iSCSI cluster shows mdnw1 and mdw1 in error and lankhb2 has an error</t>
-  </si>
-  <si>
-    <t>Remove Connection E</t>
-  </si>
-  <si>
-    <t>ESXi B shows the iSCSI network NIC’s down and iSCSI storage inactive. iSCSI cluster show lankhb3 in error. VMA moves The UC VM’s running on B to ESXi A</t>
-  </si>
-  <si>
-    <t>Remove Connection F</t>
-  </si>
-  <si>
-    <t>Remove Cable G</t>
-  </si>
-  <si>
-    <t>Reconnect Cable G</t>
-  </si>
-  <si>
-    <t>Return to normal</t>
-  </si>
-  <si>
-    <t>Connection is lost to ESXi-B, The UC VM’s running on ESXi-B  register to ESXi-A</t>
-  </si>
-  <si>
-    <t>The the UC VM’s remained on ESXi-A and iSCSI 01 mirrored to 02</t>
-  </si>
-  <si>
-    <t>Reboot ESXi-A</t>
-  </si>
-  <si>
-    <t>Reboot ESXi-B</t>
-  </si>
-  <si>
-    <t>Graceful Shutdown ESXi-A &amp; B</t>
-  </si>
-  <si>
-    <t>After Power on iSCSI and VMA clusters start normally and the UC VM’s normally on A register to ESXi-A and the UC VM’s normally on B register to ESXi-B</t>
-  </si>
-  <si>
-    <t>Both Hosts shutdown and both come up and the proper machines register to each host and function properly.</t>
-  </si>
-  <si>
-    <t>Remve Connection X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Remove Connection Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Connection A, B, C &amp; X </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reconnect A, B, C &amp; X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Remove Connection D, E, F &amp; Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reconnect D, E, F &amp; Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Connection C from module 0 and 1  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Remove Connection A from module 0 and 1 of the FT server</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reconnect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Boot ESXi-A and B at the same time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>On iSCSI cluster, Mirror Recovery runs and mdw/mdnw/lankhb shows Normal (Green).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No changes.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESXi A shows iSCSI network NIC’s down. ESXi B loses iSCSI connection.
-iSCSI cluster shows lankhb3 in error
-VMA cluster Moves The UC VM’s that were running on ESXi-B to ESXi-A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -325,46 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>On vMA cluster, genw-nic-link shows Error (Red), vma1 and iscsi1 shutdown.
-Then all groups failover from iscsi1/vma1 to iscsi2/VMA02, and vma1/iscsi1 boot automatically.</t>
-  </si>
-  <si>
-    <t>On vMA cluster, genw-nic-link shows Error (Red), VMA02 and iscsi2 shutdown.
-Then all groups failover from iscsi2/VMA02 to iscsi1/vma1, and VMA02/iscsi2 boot automatically.</t>
-  </si>
-  <si>
-    <t>VMA02 and iscsi2 boots automatically.</t>
-  </si>
-  <si>
-    <t>iscsi2 powered off UC VM’s continue running on ESXi-A 
-Then iscsi2 Power on. Then after some time iSCSI shows available on both ESXi-A and B then VMA02 powers off and then powers on.</t>
-  </si>
-  <si>
-    <t>Connection is lost to ESXi-A, iscsi2 becomes active. The UC VM’s running on ESXi-A register to ESXi-B</t>
-  </si>
-  <si>
-    <t>Connection to ESXi A is lost. iscsi2 becomes active iscsi1 shows down in the iSCSI cluster. VMA cluster shows VMA01 down and VMA02 registers the UC VM’s running on A move to ESXi-B.</t>
-  </si>
-  <si>
-    <t>iscsi1 and iscsi2 both become active. All UC VM’s register to ESXi-A so all 8 are running on A and All UC VM’s register to ESXi-B so all 8 are running on ESXi-B also</t>
-  </si>
-  <si>
-    <t>MG-SIP5-8 register to ESXi-A
-ESXi-B comes back up and iscsi1 mirrors to iscsi2</t>
-  </si>
-  <si>
-    <t>Connection to ESXi B is lost. iscsi1 is active iscsi2 shows down in the iSCSI cluster. VMA cluster shows VMA02 down and VMA01  registers the UC VM’s running on B to ESXi-A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESXi A shows Mirroring NIC’s down iSCSI cluster shows mdnw1 and mdw1 in error and lankhb2 has an error. Phones and Applications on ESXi A and B still work.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESXi-B recovers iSCSI connection</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Boot ESXi-A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,11 +227,6 @@
   </si>
   <si>
     <t>Reoot ESXi-A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>iscsi2 becomes active and MG-SIP01-04 register to ESXi-B
-ESXi-A comes back up and iscsi2 mirrors to iscsi1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -538,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,12 +410,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -580,26 +418,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4930,78 +4749,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="247650"/>
-          <a:ext cx="10972800" cy="10382250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="50800">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B2:E28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B2:E28">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" name="#" dataDxfId="3"/>
-    <tableColumn id="2" name="TEST" dataDxfId="2"/>
-    <tableColumn id="3" name="RESULT" dataDxfId="1"/>
-    <tableColumn id="4" name="DATE" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5269,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5281,23 +5028,23 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>101</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5349,7 +5096,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5357,10 +5104,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -5396,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -5414,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -5423,7 +5170,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -5486,7 +5233,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -5564,7 +5311,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="8" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
@@ -5573,7 +5320,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>25</v>
@@ -5591,7 +5338,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="8" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>28</v>
@@ -5600,18 +5347,18 @@
     <row r="29" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="8" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B30" s="8" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5619,358 +5366,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="3.875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="95.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="10">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="10">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="10">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="10">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="10">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="10">
-        <v>16</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B19" s="10">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="10">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="10">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="10">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="10">
-        <v>21</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="10">
-        <v>22</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B25" s="10">
-        <v>23</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="10">
-        <v>24</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B27" s="10">
-        <v>25</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="10">
-        <v>26</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
 </file>